--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.869462</v>
+        <v>0.782436</v>
       </c>
       <c r="N2">
-        <v>2.608386</v>
+        <v>2.347308</v>
       </c>
       <c r="O2">
-        <v>0.6030661653881536</v>
+        <v>0.9918763017460563</v>
       </c>
       <c r="P2">
-        <v>0.6030661653881537</v>
+        <v>0.9918763017460563</v>
       </c>
       <c r="Q2">
-        <v>141.200017568214</v>
+        <v>157.613706493136</v>
       </c>
       <c r="R2">
-        <v>1270.800158113926</v>
+        <v>1418.523358438224</v>
       </c>
       <c r="S2">
-        <v>0.2358212855886102</v>
+        <v>0.4794234335682432</v>
       </c>
       <c r="T2">
-        <v>0.2358212855886102</v>
+        <v>0.4794234335682433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.5722736666666667</v>
+        <v>0.006408333333333333</v>
       </c>
       <c r="N3">
-        <v>1.716821</v>
+        <v>0.019225</v>
       </c>
       <c r="O3">
-        <v>0.3969338346118463</v>
+        <v>0.008123698253943637</v>
       </c>
       <c r="P3">
-        <v>0.3969338346118463</v>
+        <v>0.008123698253943637</v>
       </c>
       <c r="Q3">
-        <v>92.93684115827899</v>
+        <v>1.290893017588889</v>
       </c>
       <c r="R3">
-        <v>836.4315704245109</v>
+        <v>11.6180371583</v>
       </c>
       <c r="S3">
-        <v>0.1552158826743907</v>
+        <v>0.003926589740396009</v>
       </c>
       <c r="T3">
-        <v>0.1552158826743907</v>
+        <v>0.00392658974039601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,40 +667,40 @@
         <v>196.252094</v>
       </c>
       <c r="I4">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J4">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869462</v>
+        <v>0.782436</v>
       </c>
       <c r="N4">
-        <v>2.608386</v>
+        <v>2.347308</v>
       </c>
       <c r="O4">
-        <v>0.6030661653881536</v>
+        <v>0.9918763017460563</v>
       </c>
       <c r="P4">
-        <v>0.6030661653881537</v>
+        <v>0.9918763017460563</v>
       </c>
       <c r="Q4">
-        <v>56.87791271780934</v>
+        <v>51.184901140328</v>
       </c>
       <c r="R4">
-        <v>511.901214460284</v>
+        <v>460.664110262952</v>
       </c>
       <c r="S4">
-        <v>0.09499306536722421</v>
+        <v>0.1556923036551761</v>
       </c>
       <c r="T4">
-        <v>0.09499306536722424</v>
+        <v>0.1556923036551762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.5722736666666667</v>
+        <v>0.006408333333333333</v>
       </c>
       <c r="N5">
-        <v>1.716821</v>
+        <v>0.019225</v>
       </c>
       <c r="O5">
-        <v>0.3969338346118463</v>
+        <v>0.008123698253943637</v>
       </c>
       <c r="P5">
-        <v>0.3969338346118463</v>
+        <v>0.008123698253943637</v>
       </c>
       <c r="Q5">
-        <v>37.43663514146378</v>
+        <v>0.4192162785722222</v>
       </c>
       <c r="R5">
-        <v>336.929716273174</v>
+        <v>3.77294650715</v>
       </c>
       <c r="S5">
-        <v>0.0625237558692706</v>
+        <v>0.001275156280203007</v>
       </c>
       <c r="T5">
-        <v>0.0625237558692706</v>
+        <v>0.001275156280203008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H6">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I6">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J6">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.869462</v>
+        <v>0.782436</v>
       </c>
       <c r="N6">
-        <v>2.608386</v>
+        <v>2.347308</v>
       </c>
       <c r="O6">
-        <v>0.6030661653881536</v>
+        <v>0.9918763017460563</v>
       </c>
       <c r="P6">
-        <v>0.6030661653881537</v>
+        <v>0.9918763017460563</v>
       </c>
       <c r="Q6">
-        <v>53.194021641794</v>
+        <v>47.286395513488</v>
       </c>
       <c r="R6">
-        <v>478.746194776146</v>
+        <v>425.577559621392</v>
       </c>
       <c r="S6">
-        <v>0.08884051705684842</v>
+        <v>0.1438339761341103</v>
       </c>
       <c r="T6">
-        <v>0.08884051705684845</v>
+        <v>0.1438339761341103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H7">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I7">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J7">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.5722736666666667</v>
+        <v>0.006408333333333333</v>
       </c>
       <c r="N7">
-        <v>1.716821</v>
+        <v>0.019225</v>
       </c>
       <c r="O7">
-        <v>0.3969338346118463</v>
+        <v>0.008123698253943637</v>
       </c>
       <c r="P7">
-        <v>0.3969338346118463</v>
+        <v>0.008123698253943637</v>
       </c>
       <c r="Q7">
-        <v>35.01192439657567</v>
+        <v>0.3872866082111111</v>
       </c>
       <c r="R7">
-        <v>315.107319569181</v>
+        <v>3.4855794739</v>
       </c>
       <c r="S7">
-        <v>0.05847419259804936</v>
+        <v>0.001178033812000074</v>
       </c>
       <c r="T7">
-        <v>0.05847419259804938</v>
+        <v>0.001178033812000074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H8">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I8">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J8">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.869462</v>
+        <v>0.782436</v>
       </c>
       <c r="N8">
-        <v>2.608386</v>
+        <v>2.347308</v>
       </c>
       <c r="O8">
-        <v>0.6030661653881536</v>
+        <v>0.9918763017460563</v>
       </c>
       <c r="P8">
-        <v>0.6030661653881537</v>
+        <v>0.9918763017460563</v>
       </c>
       <c r="Q8">
-        <v>109.8190875644867</v>
+        <v>70.00106055950002</v>
       </c>
       <c r="R8">
-        <v>988.37178808038</v>
+        <v>630.0095450355001</v>
       </c>
       <c r="S8">
-        <v>0.1834112973754708</v>
+        <v>0.2129265883885267</v>
       </c>
       <c r="T8">
-        <v>0.1834112973754709</v>
+        <v>0.2129265883885267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H9">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I9">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J9">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5722736666666667</v>
+        <v>0.006408333333333333</v>
       </c>
       <c r="N9">
-        <v>1.716821</v>
+        <v>0.019225</v>
       </c>
       <c r="O9">
-        <v>0.3969338346118463</v>
+        <v>0.008123698253943637</v>
       </c>
       <c r="P9">
-        <v>0.3969338346118463</v>
+        <v>0.008123698253943637</v>
       </c>
       <c r="Q9">
-        <v>72.28213758682556</v>
+        <v>0.5733250128472223</v>
       </c>
       <c r="R9">
-        <v>650.53923828143</v>
+        <v>5.159925115625001</v>
       </c>
       <c r="S9">
-        <v>0.1207200034701356</v>
+        <v>0.001743918421344546</v>
       </c>
       <c r="T9">
-        <v>0.1207200034701357</v>
+        <v>0.001743918421344547</v>
       </c>
     </row>
   </sheetData>
